--- a/一上/普物實驗/Lab6 碰撞實驗/E24146107_王翊權_預報6_表格.xlsx
+++ b/一上/普物實驗/Lab6 碰撞實驗/E24146107_王翊權_預報6_表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\一上\普物實驗\Lab6 碰撞實驗\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32F6A27-147D-4A0D-B942-BA604A7E2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121B6E8-DAAF-42B3-8542-2E78C6AC24D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{EE75C24F-5664-45FC-9A98-571235A74D0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{EE75C24F-5664-45FC-9A98-571235A74D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="彈性碰撞" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>小車撞大車</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,24 +202,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,10 +231,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -377,8 +380,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157992" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -420,6 +423,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -459,7 +463,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="文字方塊 5">
@@ -523,8 +527,8 @@
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="158697" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="文字方塊 8">
@@ -566,6 +570,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -590,7 +595,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -603,7 +608,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -617,7 +622,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -635,7 +640,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="文字方塊 8">
@@ -888,8 +893,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183896" cy="349198"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="文字方塊 14">
@@ -934,6 +939,7 @@
               <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -958,7 +964,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -971,7 +977,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -985,7 +991,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1003,7 +1009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="文字方塊 14">
@@ -1369,8 +1375,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157992" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="文字方塊 22">
@@ -1412,6 +1418,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1451,7 +1458,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="文字方塊 22">
@@ -1515,8 +1522,8 @@
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="158697" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="文字方塊 23">
@@ -1558,6 +1565,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1582,7 +1590,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1595,7 +1603,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1609,7 +1617,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1627,7 +1635,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="文字方塊 23">
@@ -1825,8 +1833,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183896" cy="349198"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="文字方塊 26">
@@ -1871,6 +1879,7 @@
               <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1895,7 +1904,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1908,7 +1917,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1922,7 +1931,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1940,7 +1949,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="文字方塊 26">
@@ -2243,6 +2252,226 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1925E90-F1AB-4412-9C5B-68A016D0990B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635625" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64FF7FB-191C-4851-86E5-169AAEA6156C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5622925" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文字方塊 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF8CD49-6F5C-4CBF-ADD6-8A8AAFB6B4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7860665" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文字方塊 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9927C612-3C4E-4502-9B43-8BD2BFC0CACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7847965" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2366,8 +2595,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157992" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -2409,6 +2638,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2448,7 +2678,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="文字方塊 3">
@@ -2512,8 +2742,8 @@
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="158697" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -2555,6 +2785,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2579,7 +2810,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2592,7 +2823,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2606,7 +2837,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2624,7 +2855,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="文字方塊 4">
@@ -2822,8 +3053,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183896" cy="349198"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="文字方塊 7">
@@ -2868,6 +3099,7 @@
               <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2892,7 +3124,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2905,7 +3137,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2919,7 +3151,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2937,7 +3169,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="文字方塊 7">
@@ -3132,8 +3364,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
@@ -3187,8 +3419,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
@@ -3358,8 +3590,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157992" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="文字方塊 14">
@@ -3401,6 +3633,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3440,7 +3673,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="文字方塊 14">
@@ -3504,8 +3737,8 @@
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="158697" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="文字方塊 15">
@@ -3547,6 +3780,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3571,7 +3805,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3584,7 +3818,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3598,7 +3832,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3616,7 +3850,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="文字方塊 15">
@@ -3869,8 +4103,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183896" cy="349198"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="文字方塊 19">
@@ -3915,6 +4149,7 @@
               <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3939,7 +4174,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3952,7 +4187,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3966,7 +4201,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3984,7 +4219,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="文字方塊 19">
@@ -4179,8 +4414,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
@@ -4234,8 +4469,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
@@ -4350,8 +4585,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157992" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="文字方塊 25">
@@ -4393,6 +4628,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4432,7 +4668,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="文字方塊 25">
@@ -4496,8 +4732,8 @@
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="158697" cy="176972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="文字方塊 26">
@@ -4539,6 +4775,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4563,7 +4800,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4576,7 +4813,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4590,7 +4827,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4608,7 +4845,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="文字方塊 26">
@@ -4806,8 +5043,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183896" cy="349198"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="文字方塊 29">
@@ -4852,6 +5089,7 @@
               <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100" b="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -4876,7 +5114,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4889,7 +5127,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4903,7 +5141,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4921,7 +5159,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="文字方塊 29">
@@ -5116,8 +5354,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
@@ -5171,8 +5409,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
@@ -5191,6 +5429,886 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7877175" y="4860925"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文字方塊 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD79A45-028E-4631-A4E6-B5AD46C11907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635625" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文字方塊 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C2689B-F119-4CE0-9907-DDA891E6FFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5622925" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="文字方塊 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D217DA71-7E94-4F13-BB19-4B34543EC8AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492240" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="文字方塊 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFE8BE1-B514-48E5-ABD3-80C8AE1B5DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492240" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="文字方塊 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{150B779F-6893-4B06-A1D7-5DCB70477B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7860665" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文字方塊 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073722A6-CF90-42E6-8D5B-AE3269A05BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7847965" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="文字方塊 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219C955B-ABF8-467E-BBB4-C91CBDFDBDC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635625" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文字方塊 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA17594C-A16D-47D0-8CB0-F7D938178A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5622925" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="文字方塊 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3762E6D-BC4E-49C0-9D68-AED9498CE64A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492240" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文字方塊 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEC9A80-FF82-459F-BE87-367F11733012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492240" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="文字方塊 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B45F07C-E034-4663-861E-5997E594C4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7860665" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文字方塊 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DB05B2-FA87-4BB6-9017-7F0682C42C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7847965" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文字方塊 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CAB571-784C-4C7E-9EAF-6C4C6E90BFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635625" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="文字方塊 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617112F5-878D-4CC9-8561-4E383EF362FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5622925" y="2374265"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="文字方塊 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8678E5B3-9DE4-488B-8F1A-340D88E9CB23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5635625" y="2580005"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="文字方塊 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A53170-751B-4F4F-A363-BD1C4D3F9F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5622925" y="2374265"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5544,103 +6662,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847F6CE1-5197-4113-AB4B-2BC4C058E468}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="10" max="10" width="7.08984375" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" customWidth="1"/>
-    <col min="15" max="15" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>0.21271999999999999</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="10" t="s">
         <v>6</v>
       </c>
@@ -5648,169 +6770,335 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
+      <c r="D9" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <f>-(E9-F9)/D9</f>
+        <v>1.3341121495327102</v>
+      </c>
+      <c r="H9" s="2">
+        <f>E9/D9</f>
+        <v>-0.21728971962616822</v>
+      </c>
+      <c r="I9" s="5">
+        <f>(B5-D5)/(D5+B5)</f>
+        <v>-0.18796762864559474</v>
+      </c>
+      <c r="J9" s="3">
+        <f>ABS((H9-I$9)/I$9)</f>
+        <v>0.15599542959526866</v>
+      </c>
+      <c r="K9" s="12">
+        <f>AVERAGE(J9:J13)</f>
+        <v>8.6657579778187888E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f>F9/D9</f>
+        <v>1.1168224299065421</v>
+      </c>
+      <c r="M9" s="5">
+        <f>2*B5/(D5+B5)</f>
+        <v>0.81203237135440531</v>
+      </c>
+      <c r="N9" s="3">
+        <f>ABS((L9-M$9)/M$9)</f>
+        <v>0.37534225149641665</v>
+      </c>
+      <c r="O9" s="12">
+        <f>AVERAGE(N9:N13)</f>
+        <v>0.13234733644577404</v>
+      </c>
+      <c r="Q9">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="S9">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="7"/>
+      <c r="D10" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G13" si="0">-(E10-F10)/D10</f>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H13" si="1">E10/D10</f>
+        <v>-0.16538461538461535</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10:J13" si="2">ABS((H10-I$9)/I$9)</f>
+        <v>0.12014309816909344</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L13" si="3">F10/D10</f>
+        <v>0.7961538461538461</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10:N13" si="4">ABS((L10-M$9)/M$9)</f>
+        <v>1.9554054444991024E-2</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="Q10">
+        <v>0.52</v>
+      </c>
+      <c r="R10">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="S10">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="7"/>
+      <c r="D11" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.115</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98019801980198018</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.18976897689768979</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5832897668322228E-3</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.79042904290429039</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="3">
+        <f t="shared" si="4"/>
+        <v>2.6604023696841408E-2</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="Q11">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.115</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="7"/>
+      <c r="D12" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1933471933471933</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.20997920997920999</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11710304317940395</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.98336798336798337</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.21099603668238484</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="Q12">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="R12">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="S12">
+        <v>0.10100000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="8"/>
+      <c r="D13" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98198198198198183</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.19369369369369369</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0463038180341174E-2</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.78828828828828823</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="3">
+        <f t="shared" si="4"/>
+        <v>2.9240315908236322E-2</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="Q13">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="R13">
+        <v>0.35</v>
+      </c>
+      <c r="S13">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>0.21271999999999999</v>
+      </c>
+      <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="10" t="s">
         <v>6</v>
       </c>
@@ -5818,130 +7106,255 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
+      <c r="D20" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G20" s="2">
+        <f>-(E20-F20)/D20</f>
+        <v>0.99513381995133821</v>
+      </c>
+      <c r="H20" s="2">
+        <f>E20/D20</f>
+        <v>0.17031630170316303</v>
+      </c>
+      <c r="I20" s="5">
+        <f>(B16-D16)/(D16+B16)</f>
+        <v>0.18796762864559474</v>
+      </c>
+      <c r="J20" s="3">
+        <f>ABS((H20-I$20)/I$9)</f>
+        <v>9.3906206454902746E-2</v>
+      </c>
+      <c r="K20" s="12">
+        <f>AVERAGE(J20:J24)</f>
+        <v>0.14282050225636256</v>
+      </c>
+      <c r="L20" s="2">
+        <f>F20/D20</f>
+        <v>1.1654501216545012</v>
+      </c>
+      <c r="M20" s="5">
+        <f>2*B16/(B16+D16)</f>
+        <v>1.1879676286455947</v>
+      </c>
+      <c r="N20" s="3">
+        <f>ABS((L20-M$20)/M$20)</f>
+        <v>1.8954646951757199E-2</v>
+      </c>
+      <c r="O20" s="12">
+        <f>AVERAGE(N20:N24)</f>
+        <v>1.957338524049556E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="7"/>
+      <c r="D21" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ref="G21:G24" si="5">-(E21-F21)/D21</f>
+        <v>1.0141342756183747</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ref="H21:H24" si="6">E21/D21</f>
+        <v>0.15724381625441697</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21:J24" si="7">ABS((H21-I$20)/I$9)</f>
+        <v>0.16345267859449492</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:L24" si="8">F21/D21</f>
+        <v>1.1713780918727916</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="3">
+        <f t="shared" ref="N21:N24" si="9">ABS((L21-M$20)/M$20)</f>
+        <v>1.3964637059779851E-2</v>
+      </c>
+      <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="4">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="7"/>
+      <c r="D22" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="5"/>
+        <v>1.004149377593361</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16804979253112035</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="3">
+        <f t="shared" si="7"/>
+        <v>0.10596418254564811</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1721991701244812</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3273474917065873E-2</v>
+      </c>
+      <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="7"/>
+      <c r="D23" s="2">
+        <v>0.498</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0160642570281124</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15261044176706828</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="3">
+        <f t="shared" si="7"/>
+        <v>0.18810253198007293</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1686746987951806</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="3">
+        <f t="shared" si="9"/>
+        <v>1.6240282466627488E-2</v>
+      </c>
+      <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="8"/>
+      <c r="D24" s="2">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <f>-(E24-F24)/D24</f>
+        <v>0.98848368522072938</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15738963531669867</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="3">
+        <f t="shared" si="7"/>
+        <v>0.16267691170669407</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1458733205374279</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="3">
+        <f t="shared" si="9"/>
+        <v>3.5433884807247379E-2</v>
+      </c>
+      <c r="O24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="O20:O24"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="O18:O19"/>
@@ -5951,30 +7364,22 @@
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="M20:M24"/>
+    <mergeCell ref="O20:O24"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5984,372 +7389,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38405E1B-C8B3-4B3B-9173-C8F80358A8D0}">
-  <dimension ref="B4:O24"/>
+  <dimension ref="B4:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+    <row r="7" spans="2:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
+      <c r="D9" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <f>-(E9-F9)/D9</f>
+        <v>-4.5045045045045088E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <f>E9/D9</f>
+        <v>0.40540540540540537</v>
+      </c>
+      <c r="I9" s="5">
+        <f>B5/(D5+B5)</f>
+        <v>0.40523000572628359</v>
+      </c>
+      <c r="J9" s="3">
+        <f>ABS((H9-I$9)/I$9)</f>
+        <v>4.3283981107819221E-4</v>
+      </c>
+      <c r="K9" s="12">
+        <f>AVERAGE(J9:J13)</f>
+        <v>2.2024452040163733E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="7"/>
+      <c r="D10" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G13" si="0">-(E10-F10)/D10</f>
+        <v>-4.7058823529411804E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10:H13" si="1">E10/D10</f>
+        <v>0.39529411764705885</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3">
+        <f t="shared" ref="J10:J13" si="2">ABS((H10-I$9)/I$9)</f>
+        <v>2.4519132193621493E-2</v>
+      </c>
+      <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="7"/>
+      <c r="D11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2906264719736186E-2</v>
+      </c>
+      <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="7"/>
+      <c r="D12" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0120240480961975E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38076152304609218</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>6.0381714913576474E-2</v>
+      </c>
+      <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="8"/>
+      <c r="D13" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0746887966804997E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40041493775933612</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1882308562806318E-2</v>
+      </c>
+      <c r="K13" s="7"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>0.21179000000000001</v>
+      </c>
+      <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
+      <c r="D20" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <f>-(E20-F20)/D20</f>
+        <v>2.4937655860349148E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <f>E20/D20</f>
+        <v>0.58852867830423938</v>
+      </c>
+      <c r="I20" s="5">
+        <f>B16/(D16+B16)</f>
+        <v>0.59504005812730643</v>
+      </c>
+      <c r="J20" s="3">
+        <f>ABS((H20-I$20)/I$20)</f>
+        <v>1.0942758784273242E-2</v>
+      </c>
+      <c r="K20" s="12">
+        <f>AVERAGE(J20:J24)</f>
+        <v>3.0698433306259272E-2</v>
+      </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="7"/>
+      <c r="D21" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ref="G21:G24" si="3">-(E21-F21)/D21</f>
+        <v>1.9920318725099619E-3</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ref="H21:H24" si="4">E21/D21</f>
+        <v>0.59561752988047811</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21:J24" si="5">ABS((H21-I$20)/I$20)</f>
+        <v>9.7047542477911634E-4</v>
+      </c>
+      <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="7"/>
+      <c r="D22" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0395136778115527E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.52887537993920963</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.11119365374547796</v>
+      </c>
+      <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="7"/>
+      <c r="D23" s="2">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>3.9292730844793745E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58939096267190572</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="3">
+        <f t="shared" si="5"/>
+        <v>9.4936389210154796E-3</v>
+      </c>
+      <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="8"/>
+      <c r="D24" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5217391304347883E-3</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.58260869565217388</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0891639655750548E-2</v>
+      </c>
+      <c r="K24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="O20:O24"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
+  <mergeCells count="34">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="K9:K13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
@@ -6358,30 +7858,15 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="K20:K24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
